--- a/Jason Hsieh's Auto_Vendor_v1_Answer.xlsx
+++ b/Jason Hsieh's Auto_Vendor_v1_Answer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\Cathaybk_Examine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\cathaybk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9C7F6-1174-4BF2-AB6F-58E5E3936A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查詢信用卡資訊流程" sheetId="27" r:id="rId1"/>
@@ -193,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -382,15 +383,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="常规_03_ERPF-测试-测试案例模版-资产0603" xfId="1"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规_03_ERPF-测试-测试案例模版-资产0603" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1069,7 +1070,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1245,7 +1252,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1415,7 +1422,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1564,9 +1571,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1604,9 +1611,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1641,7 +1648,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1676,7 +1683,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1849,10 +1856,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
@@ -1876,13 +1883,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -1902,14 +1909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1978,14 +1985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2115,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/Jason Hsieh's Auto_Vendor_v1_Answer.xlsx
+++ b/Jason Hsieh's Auto_Vendor_v1_Answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\cathaybk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9C7F6-1174-4BF2-AB6F-58E5E3936A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE8C196-73C4-47A1-AFA8-E2CBB2C52F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查詢信用卡資訊流程" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,12 +190,19 @@
     <t>請參考"查詢信用卡資訊流程"，撰寫測試案例心智圖，並截圖在此頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>GitHub網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/aa3507943/Cathaybk_Examine/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +276,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -327,7 +343,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,8 +352,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,12 +405,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="常规_03_ERPF-测试-测试案例模版-资产0603" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超連結" xfId="4" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1859,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="D22" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
@@ -1913,39 +1936,47 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="44.75" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="46.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -1953,7 +1984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="176.45" customHeight="1">
+    <row r="8" spans="1:4" ht="176.45" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1961,7 +1992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="182.45" customHeight="1">
+    <row r="9" spans="1:4" ht="182.45" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +2000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="122.1" customHeight="1">
+    <row r="10" spans="1:4" ht="122.1" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1979,8 +2010,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{821E58C2-F75B-4EAA-B8CC-5D581AFEE7C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1989,10 +2023,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2000,35 +2034,41 @@
     <col min="1" max="1" width="58.875" customWidth="1"/>
     <col min="2" max="2" width="56.875" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="249.6" customHeight="1">
+    <row r="9" spans="1:4" ht="249.6" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -2050,7 +2090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="207.6" customHeight="1">
+    <row r="10" spans="1:4" ht="207.6" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -2061,7 +2101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="313.5" customHeight="1">
+    <row r="11" spans="1:4" ht="313.5" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -2072,21 +2112,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="99">
+    <row r="12" spans="1:4" ht="99">
       <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:1">
@@ -2115,9 +2155,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{B01A67A9-2F52-4734-9D35-070EFB1EFCE8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Jason Hsieh's Auto_Vendor_v1_Answer.xlsx
+++ b/Jason Hsieh's Auto_Vendor_v1_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\cathaybk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE8C196-73C4-47A1-AFA8-E2CBB2C52F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B462317-CBFE-47DE-90D2-A129681FBD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>https://github.com/aa3507943/Cathaybk_Examine/</t>
+  </si>
+  <si>
+    <t>兩題測驗題皆放置於同一專案中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1939,7 +1943,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1964,6 +1968,9 @@
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2026,7 +2033,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2051,6 +2058,9 @@
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
